--- a/database/industries/ravankar/sheranol/product/quarterly_seprated.xlsx
+++ b/database/industries/ravankar/sheranol/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ravankar\sheranol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF87077D-7EA7-4A90-90DC-C2FF46465C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E4F6F-A27E-4D97-8358-74ECC7141829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -663,16 +678,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I181"/>
+  <dimension ref="B1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -681,8 +696,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,8 +713,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -705,8 +730,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -715,8 +745,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -727,8 +762,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -739,8 +779,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -749,8 +794,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -771,8 +821,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -781,10 +846,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -793,296 +863,481 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
       </c>
       <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
+        <v>-31461</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>27277</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>25972</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>22233</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>813</v>
+      </c>
+      <c r="F12" s="13">
+        <v>509</v>
+      </c>
+      <c r="G12" s="13">
+        <v>180</v>
+      </c>
+      <c r="H12" s="13">
+        <v>12</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1085</v>
+      </c>
+      <c r="J12" s="13">
         <v>612</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>63</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>587</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>856</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>88873</v>
+      </c>
+      <c r="F13" s="11">
+        <v>70296</v>
+      </c>
+      <c r="G13" s="11">
+        <v>83186</v>
+      </c>
+      <c r="H13" s="11">
+        <v>88950</v>
+      </c>
+      <c r="I13" s="11">
+        <v>107386</v>
+      </c>
+      <c r="J13" s="11">
         <v>93320</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>15234</v>
+      </c>
+      <c r="F14" s="13">
+        <v>10754</v>
+      </c>
+      <c r="G14" s="13">
+        <v>9903</v>
+      </c>
+      <c r="H14" s="13">
+        <v>5985</v>
+      </c>
+      <c r="I14" s="13">
+        <v>7336</v>
+      </c>
+      <c r="J14" s="13">
         <v>8334</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>10899</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>20186</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>13678</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
+        <v>364</v>
+      </c>
+      <c r="F16" s="13">
+        <v>297</v>
+      </c>
+      <c r="G16" s="13">
+        <v>247</v>
+      </c>
+      <c r="H16" s="13">
+        <v>88</v>
+      </c>
+      <c r="I16" s="13">
+        <v>131</v>
+      </c>
+      <c r="J16" s="13">
         <v>206</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13">
         <v>101</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>377</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>828</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
         <v>4337</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>5655</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>5028</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
         <v>6711</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>18578</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>17302</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11">
         <v>9916</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>12563</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>13000</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
         <v>6810</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>6696</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>6351</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="11">
+        <v>18</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="11">
         <v>27425</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>23717</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>26372</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15">
+        <v>105284</v>
+      </c>
+      <c r="F22" s="15">
+        <v>81856</v>
+      </c>
+      <c r="G22" s="15">
+        <v>93516</v>
+      </c>
+      <c r="H22" s="15">
+        <v>95035</v>
+      </c>
+      <c r="I22" s="15">
+        <v>84477</v>
+      </c>
+      <c r="J22" s="15">
         <v>102472</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
         <v>93539</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>114331</v>
       </c>
-      <c r="I22" s="15">
+      <c r="N22" s="15">
         <v>105648</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1091,296 +1346,481 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="11">
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="11">
         <v>104</v>
       </c>
-      <c r="H24" s="11">
+      <c r="M24" s="11">
         <v>8</v>
       </c>
-      <c r="I24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>13</v>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
+        <v>41446</v>
+      </c>
+      <c r="F26" s="11">
+        <v>65637</v>
+      </c>
+      <c r="G26" s="11">
+        <v>49013</v>
+      </c>
+      <c r="H26" s="11">
+        <v>27667</v>
+      </c>
+      <c r="I26" s="11">
+        <v>19211</v>
+      </c>
+      <c r="J26" s="11">
         <v>44308</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
+        <v>11368</v>
+      </c>
+      <c r="F27" s="13">
+        <v>5724</v>
+      </c>
+      <c r="G27" s="13">
+        <v>7112</v>
+      </c>
+      <c r="H27" s="13">
+        <v>8844</v>
+      </c>
+      <c r="I27" s="13">
+        <v>10115</v>
+      </c>
+      <c r="J27" s="13">
         <v>8961</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="11">
+        <v>18</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="11">
         <v>25432</v>
       </c>
-      <c r="H28" s="11">
+      <c r="M28" s="11">
         <v>18832</v>
       </c>
-      <c r="I28" s="11">
+      <c r="N28" s="11">
         <v>13004</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>13</v>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="11">
+        <v>18</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="11">
         <v>13442</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>10450</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>13507</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="13">
+        <v>18</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="13">
         <v>550</v>
       </c>
-      <c r="H31" s="13">
+      <c r="M31" s="13">
         <v>181</v>
       </c>
-      <c r="I31" s="13">
+      <c r="N31" s="13">
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="11">
+        <v>18</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="11">
         <v>392</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>74</v>
       </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0</v>
-      </c>
-      <c r="I33" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+      <c r="M33" s="13">
+        <v>0</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11">
+        <v>18</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="11">
         <v>22997</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>14050</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>14143</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
+        <v>52814</v>
+      </c>
+      <c r="F35" s="15">
+        <v>71361</v>
+      </c>
+      <c r="G35" s="15">
+        <v>56125</v>
+      </c>
+      <c r="H35" s="15">
+        <v>36511</v>
+      </c>
+      <c r="I35" s="15">
+        <v>29326</v>
+      </c>
+      <c r="J35" s="15">
         <v>53269</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
         <v>62917</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>43595</v>
       </c>
-      <c r="I35" s="15">
+      <c r="N35" s="15">
         <v>40948</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1389,34 +1829,54 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>13</v>
+      <c r="E37" s="11">
+        <v>0</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -1435,76 +1895,136 @@
       <c r="I38" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="15">
+        <v>0</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>13</v>
+      <c r="E39" s="17">
+        <v>0</v>
+      </c>
+      <c r="F39" s="17">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>13</v>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0</v>
       </c>
       <c r="G40" s="15">
         <v>0</v>
       </c>
-      <c r="H40" s="15">
-        <v>0</v>
+      <c r="H40" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I40" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="15">
+        <v>0</v>
+      </c>
+      <c r="M40" s="15">
+        <v>0</v>
+      </c>
+      <c r="N40" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17">
+        <v>158098</v>
+      </c>
+      <c r="F41" s="17">
+        <v>153217</v>
+      </c>
+      <c r="G41" s="17">
+        <v>149641</v>
+      </c>
+      <c r="H41" s="17">
+        <v>131546</v>
+      </c>
+      <c r="I41" s="17">
+        <v>113803</v>
+      </c>
+      <c r="J41" s="17">
         <v>155741</v>
       </c>
-      <c r="F41" s="17">
-        <v>0</v>
-      </c>
-      <c r="G41" s="17">
+      <c r="K41" s="17">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17">
         <v>156456</v>
       </c>
-      <c r="H41" s="17">
+      <c r="M41" s="17">
         <v>157926</v>
       </c>
-      <c r="I41" s="17">
+      <c r="N41" s="17">
         <v>146596</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1513,8 +2033,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1523,8 +2048,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1533,10 +2063,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1555,8 +2090,23 @@
       <c r="I45" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1565,10 +2115,15 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1577,296 +2132,481 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>13</v>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
       </c>
       <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="11">
+        <v>-1916077</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="11">
         <v>2696744</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>2232107</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>1901661</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>130431</v>
+      </c>
+      <c r="F49" s="13">
+        <v>106452</v>
+      </c>
+      <c r="G49" s="13">
+        <v>42974</v>
+      </c>
+      <c r="H49" s="13">
+        <v>3651</v>
+      </c>
+      <c r="I49" s="13">
+        <v>383610</v>
+      </c>
+      <c r="J49" s="13">
         <v>226239</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="13">
+      <c r="K49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="13">
         <v>26005</v>
       </c>
-      <c r="H49" s="13">
+      <c r="M49" s="13">
         <v>346683</v>
       </c>
-      <c r="I49" s="13">
+      <c r="N49" s="13">
         <v>506732</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>7038038</v>
+      </c>
+      <c r="F50" s="11">
+        <v>6984343</v>
+      </c>
+      <c r="G50" s="11">
+        <v>9808763</v>
+      </c>
+      <c r="H50" s="11">
+        <v>10245746</v>
+      </c>
+      <c r="I50" s="11">
+        <v>16098047</v>
+      </c>
+      <c r="J50" s="11">
         <v>17100095</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
+        <v>746139</v>
+      </c>
+      <c r="F51" s="13">
+        <v>986285</v>
+      </c>
+      <c r="G51" s="13">
+        <v>1020050</v>
+      </c>
+      <c r="H51" s="13">
+        <v>720712</v>
+      </c>
+      <c r="I51" s="13">
+        <v>1008307</v>
+      </c>
+      <c r="J51" s="13">
         <v>1371273</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="11">
+        <v>18</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="11">
         <v>2678381</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>4983923</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>3581516</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
+        <v>68466</v>
+      </c>
+      <c r="F53" s="13">
+        <v>79007</v>
+      </c>
+      <c r="G53" s="13">
+        <v>80806</v>
+      </c>
+      <c r="H53" s="13">
+        <v>32389</v>
+      </c>
+      <c r="I53" s="13">
+        <v>49253</v>
+      </c>
+      <c r="J53" s="13">
         <v>87444</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="K53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="13">
         <v>65960</v>
       </c>
-      <c r="H53" s="13">
+      <c r="M53" s="13">
         <v>311217</v>
       </c>
-      <c r="I53" s="13">
+      <c r="N53" s="13">
         <v>591315</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="11">
+        <v>18</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="11">
         <v>839870</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>1060551</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>895472</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="13">
+        <v>18</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="13">
         <v>2139465</v>
       </c>
-      <c r="H55" s="13">
+      <c r="M55" s="13">
         <v>6322965</v>
       </c>
-      <c r="I55" s="13">
+      <c r="N55" s="13">
         <v>5804084</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="11">
+        <v>18</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="11">
         <v>3193199</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>4682191</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>4763761</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="13">
+        <v>18</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="13">
         <v>3412186</v>
       </c>
-      <c r="H57" s="13">
+      <c r="M57" s="13">
         <v>3498551</v>
       </c>
-      <c r="I57" s="13">
+      <c r="N57" s="13">
         <v>3514011</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="11">
+        <v>18</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="11">
         <v>4236935</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>3539644</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>3061951</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
+        <v>7983074</v>
+      </c>
+      <c r="F59" s="15">
+        <v>8156087</v>
+      </c>
+      <c r="G59" s="15">
+        <v>10952593</v>
+      </c>
+      <c r="H59" s="15">
+        <v>11002498</v>
+      </c>
+      <c r="I59" s="15">
+        <v>15623140</v>
+      </c>
+      <c r="J59" s="15">
         <v>18785051</v>
       </c>
-      <c r="F59" s="15">
-        <v>0</v>
-      </c>
-      <c r="G59" s="15">
+      <c r="K59" s="15">
+        <v>0</v>
+      </c>
+      <c r="L59" s="15">
         <v>19288745</v>
       </c>
-      <c r="H59" s="15">
+      <c r="M59" s="15">
         <v>26977832</v>
       </c>
-      <c r="I59" s="15">
+      <c r="N59" s="15">
         <v>24620503</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -1875,296 +2615,481 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="11">
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="11">
         <v>19397</v>
       </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M61" s="11">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>13</v>
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
+        <v>0</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>2581818</v>
+      </c>
+      <c r="F63" s="11">
+        <v>7981403</v>
+      </c>
+      <c r="G63" s="11">
+        <v>6068548</v>
+      </c>
+      <c r="H63" s="11">
+        <v>4497561</v>
+      </c>
+      <c r="I63" s="11">
+        <v>2229547</v>
+      </c>
+      <c r="J63" s="11">
         <v>5393447</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
+        <v>530421</v>
+      </c>
+      <c r="F64" s="13">
+        <v>506359</v>
+      </c>
+      <c r="G64" s="13">
+        <v>621154</v>
+      </c>
+      <c r="H64" s="13">
+        <v>912053</v>
+      </c>
+      <c r="I64" s="13">
+        <v>1091263</v>
+      </c>
+      <c r="J64" s="13">
         <v>1324639</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="11">
+        <v>18</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="11">
         <v>6074562</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>4747998</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>2953964</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D66" s="13"/>
-      <c r="E66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>13</v>
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="11">
+        <v>18</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="11">
         <v>2607411</v>
       </c>
-      <c r="H67" s="11">
+      <c r="M67" s="11">
         <v>1869638</v>
       </c>
-      <c r="I67" s="11">
+      <c r="N67" s="11">
         <v>2205507</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="13">
+        <v>18</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="13">
         <v>160593</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>65230</v>
       </c>
-      <c r="I68" s="13">
+      <c r="N68" s="13">
         <v>107590</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="11">
+        <v>18</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="11">
         <v>95110</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>27232</v>
       </c>
-      <c r="I69" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="13">
-        <v>0</v>
-      </c>
-      <c r="H70" s="13">
-        <v>0</v>
-      </c>
-      <c r="I70" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="13">
+        <v>0</v>
+      </c>
+      <c r="M70" s="13">
+        <v>0</v>
+      </c>
+      <c r="N70" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="11">
+        <v>18</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="11">
         <v>3180053</v>
       </c>
-      <c r="H71" s="11">
+      <c r="M71" s="11">
         <v>1574340</v>
       </c>
-      <c r="I71" s="11">
+      <c r="N71" s="11">
         <v>1241725</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
+        <v>3112239</v>
+      </c>
+      <c r="F72" s="15">
+        <v>8487762</v>
+      </c>
+      <c r="G72" s="15">
+        <v>6689702</v>
+      </c>
+      <c r="H72" s="15">
+        <v>5409614</v>
+      </c>
+      <c r="I72" s="15">
+        <v>3320810</v>
+      </c>
+      <c r="J72" s="15">
         <v>6718086</v>
       </c>
-      <c r="F72" s="15">
-        <v>0</v>
-      </c>
-      <c r="G72" s="15">
+      <c r="K72" s="15">
+        <v>0</v>
+      </c>
+      <c r="L72" s="15">
         <v>12137126</v>
       </c>
-      <c r="H72" s="15">
+      <c r="M72" s="15">
         <v>8284438</v>
       </c>
-      <c r="I72" s="15">
+      <c r="N72" s="15">
         <v>6508786</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -2173,34 +3098,54 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>13</v>
+      <c r="E74" s="11">
+        <v>0</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -2219,78 +3164,138 @@
       <c r="I75" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="15">
+        <v>0</v>
+      </c>
+      <c r="K75" s="15">
+        <v>0</v>
+      </c>
+      <c r="L75" s="15">
+        <v>0</v>
+      </c>
+      <c r="M75" s="15">
+        <v>0</v>
+      </c>
+      <c r="N75" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D76" s="17"/>
-      <c r="E76" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>13</v>
+      <c r="E76" s="17">
+        <v>0</v>
+      </c>
+      <c r="F76" s="17">
+        <v>0</v>
+      </c>
+      <c r="G76" s="17">
+        <v>0</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D77" s="15"/>
-      <c r="E77" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>13</v>
+      <c r="E77" s="15">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15">
+        <v>0</v>
       </c>
       <c r="G77" s="15">
         <v>0</v>
       </c>
-      <c r="H77" s="15">
-        <v>0</v>
+      <c r="H77" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I77" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="15">
+        <v>0</v>
+      </c>
+      <c r="M77" s="15">
+        <v>0</v>
+      </c>
+      <c r="N77" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17">
+        <v>11095313</v>
+      </c>
+      <c r="F78" s="17">
+        <v>16643849</v>
+      </c>
+      <c r="G78" s="17">
+        <v>17642295</v>
+      </c>
+      <c r="H78" s="17">
+        <v>16412112</v>
+      </c>
+      <c r="I78" s="17">
+        <v>18943950</v>
+      </c>
+      <c r="J78" s="17">
         <v>25503137</v>
       </c>
-      <c r="F78" s="17">
-        <v>0</v>
-      </c>
-      <c r="G78" s="17">
+      <c r="K78" s="17">
+        <v>0</v>
+      </c>
+      <c r="L78" s="17">
         <v>31425871</v>
       </c>
-      <c r="H78" s="17">
+      <c r="M78" s="17">
         <v>35262270</v>
       </c>
-      <c r="I78" s="17">
+      <c r="N78" s="17">
         <v>31129289</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2299,8 +3304,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2309,8 +3319,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2319,10 +3334,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2341,8 +3361,23 @@
       <c r="I82" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2351,10 +3386,15 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -2363,274 +3403,444 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="11">
+        <v>18</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="11">
+        <v>60903245</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="11">
         <v>69574408</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>98865124</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>85942823</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>85533261</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
+        <v>160431734</v>
+      </c>
+      <c r="F86" s="13">
+        <v>209139489</v>
+      </c>
+      <c r="G86" s="13">
+        <v>238744444</v>
+      </c>
+      <c r="H86" s="13">
+        <v>304250000</v>
+      </c>
+      <c r="I86" s="13">
+        <v>353557604</v>
+      </c>
+      <c r="J86" s="13">
         <v>369671569</v>
       </c>
-      <c r="F86" s="13">
+      <c r="K86" s="13">
         <v>352495146</v>
       </c>
-      <c r="G86" s="13">
+      <c r="L86" s="13">
         <v>412777778</v>
       </c>
-      <c r="H86" s="13">
+      <c r="M86" s="13">
         <v>590601363</v>
       </c>
-      <c r="I86" s="13">
+      <c r="N86" s="13">
         <v>591976636</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
+        <v>79192083</v>
+      </c>
+      <c r="F87" s="11">
+        <v>99357607</v>
+      </c>
+      <c r="G87" s="11">
+        <v>117913627</v>
+      </c>
+      <c r="H87" s="11">
+        <v>115185453</v>
+      </c>
+      <c r="I87" s="11">
+        <v>149908247</v>
+      </c>
+      <c r="J87" s="11">
         <v>183241481</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>48978535</v>
+      </c>
+      <c r="F88" s="13">
+        <v>91713316</v>
+      </c>
+      <c r="G88" s="13">
+        <v>103004140</v>
+      </c>
+      <c r="H88" s="13">
+        <v>120419716</v>
+      </c>
+      <c r="I88" s="13">
+        <v>137446429</v>
+      </c>
+      <c r="J88" s="13">
         <v>164539597</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N88" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="11">
+        <v>18</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="11">
         <v>181874487</v>
       </c>
-      <c r="G89" s="11">
+      <c r="L89" s="11">
         <v>245745573</v>
       </c>
-      <c r="H89" s="11">
+      <c r="M89" s="11">
         <v>246899980</v>
       </c>
-      <c r="I89" s="11">
+      <c r="N89" s="11">
         <v>261845007</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
+        <v>188093407</v>
+      </c>
+      <c r="F90" s="13">
+        <v>266016835</v>
+      </c>
+      <c r="G90" s="13">
+        <v>327149798</v>
+      </c>
+      <c r="H90" s="13">
+        <v>368056818</v>
+      </c>
+      <c r="I90" s="13">
+        <v>375977099</v>
+      </c>
+      <c r="J90" s="13">
         <v>424485437</v>
       </c>
-      <c r="F90" s="13">
+      <c r="K90" s="13">
         <v>436517321</v>
       </c>
-      <c r="G90" s="13">
+      <c r="L90" s="13">
         <v>653069307</v>
       </c>
-      <c r="H90" s="13">
+      <c r="M90" s="13">
         <v>825509284</v>
       </c>
-      <c r="I90" s="13">
+      <c r="N90" s="13">
         <v>714148551</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="11">
+        <v>18</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="11">
         <v>145693869</v>
       </c>
-      <c r="G91" s="11">
+      <c r="L91" s="11">
         <v>193652294</v>
       </c>
-      <c r="H91" s="11">
+      <c r="M91" s="11">
         <v>187542175</v>
       </c>
-      <c r="I91" s="11">
+      <c r="N91" s="11">
         <v>178097056</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="13">
+        <v>18</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="13">
         <v>245613955</v>
       </c>
-      <c r="G92" s="13">
+      <c r="L92" s="13">
         <v>318799732</v>
       </c>
-      <c r="H92" s="13">
+      <c r="M92" s="13">
         <v>340346916</v>
       </c>
-      <c r="I92" s="13">
+      <c r="N92" s="13">
         <v>335457404</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="11">
+        <v>18</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="11">
         <v>278210084</v>
       </c>
-      <c r="G93" s="11">
+      <c r="L93" s="11">
         <v>322024909</v>
       </c>
-      <c r="H93" s="11">
+      <c r="M93" s="11">
         <v>372696888</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>366443154</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="13">
+        <v>18</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="13">
         <v>372882080</v>
       </c>
-      <c r="G94" s="13">
+      <c r="L94" s="13">
         <v>501055213</v>
       </c>
-      <c r="H94" s="13">
+      <c r="M94" s="13">
         <v>522483722</v>
       </c>
-      <c r="I94" s="13">
+      <c r="N94" s="13">
         <v>553300425</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="11">
+        <v>18</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="11">
         <v>89930611</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>154491705</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>149245014</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>116106135</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -2639,274 +3849,444 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="11">
+        <v>18</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="11">
         <v>112664339</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>186509615</v>
       </c>
-      <c r="H97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>62293539</v>
+      </c>
+      <c r="F99" s="11">
+        <v>121599144</v>
+      </c>
+      <c r="G99" s="11">
+        <v>123815069</v>
+      </c>
+      <c r="H99" s="11">
+        <v>162560487</v>
+      </c>
+      <c r="I99" s="11">
+        <v>116055749</v>
+      </c>
+      <c r="J99" s="11">
         <v>121726257</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>46659131</v>
+      </c>
+      <c r="F100" s="13">
+        <v>88462439</v>
+      </c>
+      <c r="G100" s="13">
+        <v>87338864</v>
+      </c>
+      <c r="H100" s="13">
+        <v>103126753</v>
+      </c>
+      <c r="I100" s="13">
+        <v>107885615</v>
+      </c>
+      <c r="J100" s="13">
         <v>147822676</v>
       </c>
-      <c r="F100" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="11">
+        <v>18</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="11">
         <v>183522526</v>
       </c>
-      <c r="G101" s="11">
+      <c r="L101" s="11">
         <v>238855064</v>
       </c>
-      <c r="H101" s="11">
+      <c r="M101" s="11">
         <v>252123938</v>
       </c>
-      <c r="I101" s="11">
+      <c r="N101" s="11">
         <v>227158105</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="11">
+        <v>18</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="11">
         <v>127729595</v>
       </c>
-      <c r="G103" s="11">
+      <c r="L103" s="11">
         <v>193974929</v>
       </c>
-      <c r="H103" s="11">
+      <c r="M103" s="11">
         <v>178912727</v>
       </c>
-      <c r="I103" s="11">
+      <c r="N103" s="11">
         <v>163286222</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="13">
+        <v>18</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="13">
         <v>250862084</v>
       </c>
-      <c r="G104" s="13">
+      <c r="L104" s="13">
         <v>291987273</v>
       </c>
-      <c r="H104" s="13">
+      <c r="M104" s="13">
         <v>360386740</v>
       </c>
-      <c r="I104" s="13">
+      <c r="N104" s="13">
         <v>365952381</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="11">
+        <v>18</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="11">
         <v>213331043</v>
       </c>
-      <c r="G105" s="11">
+      <c r="L105" s="11">
         <v>242627551</v>
       </c>
-      <c r="H105" s="11">
+      <c r="M105" s="11">
         <v>368000000</v>
       </c>
-      <c r="I105" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N105" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="13">
+        <v>18</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="13">
         <v>219341463</v>
       </c>
-      <c r="G106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="11">
+        <v>18</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K107" s="11">
         <v>84697107</v>
       </c>
-      <c r="G107" s="11">
+      <c r="L107" s="11">
         <v>138281211</v>
       </c>
-      <c r="H107" s="11">
+      <c r="M107" s="11">
         <v>112052669</v>
       </c>
-      <c r="I107" s="11">
+      <c r="N107" s="11">
         <v>87797851</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -2915,32 +4295,52 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N109" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2949,8 +4349,13 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2959,8 +4364,13 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2969,10 +4379,15 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -2991,8 +4406,23 @@
       <c r="I113" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3001,10 +4431,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -3013,296 +4448,481 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>13</v>
+      <c r="E116" s="11">
+        <v>0</v>
       </c>
       <c r="F116" s="11">
+        <v>0</v>
+      </c>
+      <c r="G116" s="11">
+        <v>0</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="11">
+        <v>0</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" s="11">
         <v>-5565822</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>-2301330</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>-1815486</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>-1178166</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13">
+        <v>-90619</v>
+      </c>
+      <c r="F117" s="13">
+        <v>-65262</v>
+      </c>
+      <c r="G117" s="13">
+        <v>-34795</v>
+      </c>
+      <c r="H117" s="13">
+        <v>-2921</v>
+      </c>
+      <c r="I117" s="13">
+        <v>-231555</v>
+      </c>
+      <c r="J117" s="13">
         <v>-148120</v>
       </c>
-      <c r="F117" s="13">
+      <c r="K117" s="13">
         <v>-53843</v>
       </c>
-      <c r="G117" s="13">
+      <c r="L117" s="13">
         <v>-15070</v>
       </c>
-      <c r="H117" s="13">
+      <c r="M117" s="13">
         <v>-191156</v>
       </c>
-      <c r="I117" s="13">
+      <c r="N117" s="13">
         <v>-221250</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>-5281325</v>
+      </c>
+      <c r="F118" s="11">
+        <v>-4856405</v>
+      </c>
+      <c r="G118" s="11">
+        <v>-7854998</v>
+      </c>
+      <c r="H118" s="11">
+        <v>-7612739</v>
+      </c>
+      <c r="I118" s="11">
+        <v>-11399490</v>
+      </c>
+      <c r="J118" s="11">
         <v>-13141461</v>
       </c>
-      <c r="F118" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13">
+        <v>-559492</v>
+      </c>
+      <c r="F119" s="13">
+        <v>-654482</v>
+      </c>
+      <c r="G119" s="13">
+        <v>-786799</v>
+      </c>
+      <c r="H119" s="13">
+        <v>-576570</v>
+      </c>
+      <c r="I119" s="13">
+        <v>-807210</v>
+      </c>
+      <c r="J119" s="13">
         <v>-1229207</v>
       </c>
-      <c r="F119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I119" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N119" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="11">
+        <v>18</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="11">
         <v>-7031061</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>-2167264</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>-3817841</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>-2836498</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13">
+        <v>-52683</v>
+      </c>
+      <c r="F121" s="13">
+        <v>-45922</v>
+      </c>
+      <c r="G121" s="13">
+        <v>-60676</v>
+      </c>
+      <c r="H121" s="13">
+        <v>-25911</v>
+      </c>
+      <c r="I121" s="13">
+        <v>-44658</v>
+      </c>
+      <c r="J121" s="13">
         <v>-79968</v>
       </c>
-      <c r="F121" s="13">
+      <c r="K121" s="13">
         <v>-218514</v>
       </c>
-      <c r="G121" s="13">
+      <c r="L121" s="13">
         <v>-36436</v>
       </c>
-      <c r="H121" s="13">
+      <c r="M121" s="13">
         <v>-308499</v>
       </c>
-      <c r="I121" s="13">
+      <c r="N121" s="13">
         <v>-537320</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="11">
+        <v>18</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="11">
         <v>-2999716</v>
       </c>
-      <c r="G122" s="11">
+      <c r="L122" s="11">
         <v>-815517</v>
       </c>
-      <c r="H122" s="11">
+      <c r="M122" s="11">
         <v>-769512</v>
       </c>
-      <c r="I122" s="11">
+      <c r="N122" s="11">
         <v>-678411</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="13">
+        <v>18</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J123" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="13">
         <v>-11538732</v>
       </c>
-      <c r="G123" s="13">
+      <c r="L123" s="13">
         <v>-1885022</v>
       </c>
-      <c r="H123" s="13">
+      <c r="M123" s="13">
         <v>-5270818</v>
       </c>
-      <c r="I123" s="13">
+      <c r="N123" s="13">
         <v>-5084036</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" s="11">
+        <v>18</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="11">
         <v>-9575171</v>
       </c>
-      <c r="G124" s="11">
+      <c r="L124" s="11">
         <v>-2666535</v>
       </c>
-      <c r="H124" s="11">
+      <c r="M124" s="11">
         <v>-3537754</v>
       </c>
-      <c r="I124" s="11">
+      <c r="N124" s="11">
         <v>-3808504</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="13">
+        <v>18</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" s="13">
         <v>-5216093</v>
       </c>
-      <c r="G125" s="13">
+      <c r="L125" s="13">
         <v>-2026436</v>
       </c>
-      <c r="H125" s="13">
+      <c r="M125" s="13">
         <v>-1645839</v>
       </c>
-      <c r="I125" s="13">
+      <c r="N125" s="13">
         <v>-1987706</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="11">
+        <v>18</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" s="11">
         <v>-7221064</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>-3518210</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>-2044705</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>-1878336</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
+        <v>-5984119</v>
+      </c>
+      <c r="F127" s="15">
+        <v>-5622071</v>
+      </c>
+      <c r="G127" s="15">
+        <v>-8737268</v>
+      </c>
+      <c r="H127" s="15">
+        <v>-8218141</v>
+      </c>
+      <c r="I127" s="15">
+        <v>-12482913</v>
+      </c>
+      <c r="J127" s="15">
         <v>-14598756</v>
       </c>
-      <c r="F127" s="15">
+      <c r="K127" s="15">
         <v>-49420016</v>
       </c>
-      <c r="G127" s="15">
+      <c r="L127" s="15">
         <v>-15431820</v>
       </c>
-      <c r="H127" s="15">
+      <c r="M127" s="15">
         <v>-19401610</v>
       </c>
-      <c r="I127" s="15">
+      <c r="N127" s="15">
         <v>-18210227</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -3311,296 +4931,481 @@
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D129" s="11"/>
-      <c r="E129" s="11" t="s">
-        <v>13</v>
+      <c r="E129" s="11">
+        <v>0</v>
       </c>
       <c r="F129" s="11">
+        <v>0</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" s="11">
         <v>-157591</v>
       </c>
-      <c r="G129" s="11">
+      <c r="L129" s="11">
         <v>-15811</v>
       </c>
-      <c r="H129" s="11">
-        <v>0</v>
-      </c>
-      <c r="I129" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M129" s="11">
+        <v>0</v>
+      </c>
+      <c r="N129" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D130" s="13"/>
-      <c r="E130" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>13</v>
+      <c r="E130" s="13">
+        <v>0</v>
+      </c>
+      <c r="F130" s="13">
+        <v>0</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N130" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11">
+        <v>-1876743</v>
+      </c>
+      <c r="F131" s="11">
+        <v>-3956298</v>
+      </c>
+      <c r="G131" s="11">
+        <v>-4065148</v>
+      </c>
+      <c r="H131" s="11">
+        <v>-2743513</v>
+      </c>
+      <c r="I131" s="11">
+        <v>-1358854</v>
+      </c>
+      <c r="J131" s="11">
         <v>-4139610</v>
       </c>
-      <c r="F131" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I131" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N131" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="13">
+        <v>-380414</v>
+      </c>
+      <c r="F132" s="13">
+        <v>-384397</v>
+      </c>
+      <c r="G132" s="13">
+        <v>-464819</v>
+      </c>
+      <c r="H132" s="13">
+        <v>-729642</v>
+      </c>
+      <c r="I132" s="13">
+        <v>-766138</v>
+      </c>
+      <c r="J132" s="13">
         <v>-1000186</v>
       </c>
-      <c r="F132" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I132" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N132" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133" s="11">
+        <v>18</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J133" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" s="11">
         <v>-7843711</v>
       </c>
-      <c r="G133" s="11">
+      <c r="L133" s="11">
         <v>-4799370</v>
       </c>
-      <c r="H133" s="11">
+      <c r="M133" s="11">
         <v>-3780558</v>
       </c>
-      <c r="I133" s="11">
+      <c r="N133" s="11">
         <v>-2691038</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D134" s="13"/>
-      <c r="E134" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>13</v>
+      <c r="E134" s="13">
+        <v>0</v>
+      </c>
+      <c r="F134" s="13">
+        <v>0</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N134" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="11">
+        <v>18</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K135" s="11">
         <v>-4104907</v>
       </c>
-      <c r="G135" s="11">
+      <c r="L135" s="11">
         <v>-2262871</v>
       </c>
-      <c r="H135" s="11">
+      <c r="M135" s="11">
         <v>-1425621</v>
       </c>
-      <c r="I135" s="11">
+      <c r="N135" s="11">
         <v>-1629887</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="13">
+        <v>18</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" s="13">
         <v>-409356</v>
       </c>
-      <c r="G136" s="13">
+      <c r="L136" s="13">
         <v>-115081</v>
       </c>
-      <c r="H136" s="13">
+      <c r="M136" s="13">
         <v>-47697</v>
       </c>
-      <c r="I136" s="13">
+      <c r="N136" s="13">
         <v>-78205</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="11">
+        <v>18</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K137" s="11">
         <v>-294388</v>
       </c>
-      <c r="G137" s="11">
+      <c r="L137" s="11">
         <v>-85447</v>
       </c>
-      <c r="H137" s="11">
+      <c r="M137" s="11">
         <v>-25013</v>
       </c>
-      <c r="I137" s="11">
+      <c r="N137" s="11">
         <v>-417</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" s="13">
+        <v>18</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K138" s="13">
         <v>-7280</v>
       </c>
-      <c r="G138" s="13">
-        <v>0</v>
-      </c>
-      <c r="H138" s="13">
-        <v>0</v>
-      </c>
-      <c r="I138" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L138" s="13">
+        <v>0</v>
+      </c>
+      <c r="M138" s="13">
+        <v>0</v>
+      </c>
+      <c r="N138" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" s="11">
+        <v>18</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" s="11">
         <v>-3910311</v>
       </c>
-      <c r="G139" s="11">
+      <c r="L139" s="11">
         <v>-2270316</v>
       </c>
-      <c r="H139" s="11">
+      <c r="M139" s="11">
         <v>-1611743</v>
       </c>
-      <c r="I139" s="11">
+      <c r="N139" s="11">
         <v>-895632</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
       <c r="E140" s="15">
+        <v>-2257157</v>
+      </c>
+      <c r="F140" s="15">
+        <v>-4340695</v>
+      </c>
+      <c r="G140" s="15">
+        <v>-4529967</v>
+      </c>
+      <c r="H140" s="15">
+        <v>-3473155</v>
+      </c>
+      <c r="I140" s="15">
+        <v>-2124992</v>
+      </c>
+      <c r="J140" s="15">
         <v>-5139796</v>
       </c>
-      <c r="F140" s="15">
+      <c r="K140" s="15">
         <v>-16727544</v>
       </c>
-      <c r="G140" s="15">
+      <c r="L140" s="15">
         <v>-9548896</v>
       </c>
-      <c r="H140" s="15">
+      <c r="M140" s="15">
         <v>-6890632</v>
       </c>
-      <c r="I140" s="15">
+      <c r="N140" s="15">
         <v>-5295179</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -3609,34 +5414,54 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>13</v>
+      <c r="E142" s="11">
+        <v>0</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
@@ -3655,41 +5480,71 @@
       <c r="I143" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="15">
+        <v>0</v>
+      </c>
+      <c r="K143" s="15">
+        <v>0</v>
+      </c>
+      <c r="L143" s="15">
+        <v>0</v>
+      </c>
+      <c r="M143" s="15">
+        <v>0</v>
+      </c>
+      <c r="N143" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D144" s="17"/>
-      <c r="E144" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" s="17" t="s">
-        <v>13</v>
+      <c r="E144" s="17">
+        <v>0</v>
+      </c>
+      <c r="F144" s="17">
+        <v>0</v>
+      </c>
+      <c r="G144" s="17">
+        <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I144" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J144" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K144" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L144" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M144" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N144" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D145" s="15"/>
-      <c r="E145" s="15" t="s">
-        <v>13</v>
+      <c r="E145" s="15">
+        <v>0</v>
       </c>
       <c r="F145" s="15">
         <v>0</v>
@@ -3697,36 +5552,66 @@
       <c r="G145" s="15">
         <v>0</v>
       </c>
-      <c r="H145" s="15">
-        <v>0</v>
+      <c r="H145" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I145" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K145" s="15">
+        <v>0</v>
+      </c>
+      <c r="L145" s="15">
+        <v>0</v>
+      </c>
+      <c r="M145" s="15">
+        <v>0</v>
+      </c>
+      <c r="N145" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
       <c r="E146" s="17">
+        <v>-8241276</v>
+      </c>
+      <c r="F146" s="17">
+        <v>-9962766</v>
+      </c>
+      <c r="G146" s="17">
+        <v>-13267235</v>
+      </c>
+      <c r="H146" s="17">
+        <v>-11691296</v>
+      </c>
+      <c r="I146" s="17">
+        <v>-14607905</v>
+      </c>
+      <c r="J146" s="17">
         <v>-19738552</v>
       </c>
-      <c r="F146" s="17">
+      <c r="K146" s="17">
         <v>-66147560</v>
       </c>
-      <c r="G146" s="17">
+      <c r="L146" s="17">
         <v>-24980716</v>
       </c>
-      <c r="H146" s="17">
+      <c r="M146" s="17">
         <v>-26292242</v>
       </c>
-      <c r="I146" s="17">
+      <c r="N146" s="17">
         <v>-23505406</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3735,8 +5620,13 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3745,8 +5635,13 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3755,10 +5650,15 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -3777,8 +5677,23 @@
       <c r="I150" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3787,10 +5702,15 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -3799,296 +5719,481 @@
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D153" s="11"/>
-      <c r="E153" s="11" t="s">
-        <v>13</v>
+      <c r="E153" s="11">
+        <v>0</v>
       </c>
       <c r="F153" s="11">
+        <v>0</v>
+      </c>
+      <c r="G153" s="11">
+        <v>0</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="11">
+        <v>0</v>
+      </c>
+      <c r="J153" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K153" s="11">
         <v>2089311</v>
       </c>
-      <c r="G153" s="11">
+      <c r="L153" s="11">
         <v>395414</v>
       </c>
-      <c r="H153" s="11">
+      <c r="M153" s="11">
         <v>416621</v>
       </c>
-      <c r="I153" s="11">
+      <c r="N153" s="11">
         <v>723495</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D154" s="13"/>
       <c r="E154" s="13">
+        <v>39812</v>
+      </c>
+      <c r="F154" s="13">
+        <v>41190</v>
+      </c>
+      <c r="G154" s="13">
+        <v>8179</v>
+      </c>
+      <c r="H154" s="13">
+        <v>730</v>
+      </c>
+      <c r="I154" s="13">
+        <v>152070</v>
+      </c>
+      <c r="J154" s="13">
         <v>78119</v>
       </c>
-      <c r="F154" s="13">
+      <c r="K154" s="13">
         <v>18771</v>
       </c>
-      <c r="G154" s="13">
+      <c r="L154" s="13">
         <v>10935</v>
       </c>
-      <c r="H154" s="13">
+      <c r="M154" s="13">
         <v>155527</v>
       </c>
-      <c r="I154" s="13">
+      <c r="N154" s="13">
         <v>285482</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
+        <v>1756713</v>
+      </c>
+      <c r="F155" s="11">
+        <v>2127938</v>
+      </c>
+      <c r="G155" s="11">
+        <v>1953765</v>
+      </c>
+      <c r="H155" s="11">
+        <v>2633007</v>
+      </c>
+      <c r="I155" s="11">
+        <v>4698557</v>
+      </c>
+      <c r="J155" s="11">
         <v>3958634</v>
       </c>
-      <c r="F155" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K155" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L155" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M155" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N155" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D156" s="13"/>
       <c r="E156" s="13">
+        <v>186647</v>
+      </c>
+      <c r="F156" s="13">
+        <v>331803</v>
+      </c>
+      <c r="G156" s="13">
+        <v>233251</v>
+      </c>
+      <c r="H156" s="13">
+        <v>144142</v>
+      </c>
+      <c r="I156" s="13">
+        <v>201097</v>
+      </c>
+      <c r="J156" s="13">
         <v>142066</v>
       </c>
-      <c r="F156" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I156" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K156" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L156" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M156" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N156" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" s="11">
+        <v>18</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K157" s="11">
         <v>2579005</v>
       </c>
-      <c r="G157" s="11">
+      <c r="L157" s="11">
         <v>511117</v>
       </c>
-      <c r="H157" s="11">
+      <c r="M157" s="11">
         <v>1166082</v>
       </c>
-      <c r="I157" s="11">
+      <c r="N157" s="11">
         <v>745018</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D158" s="13"/>
       <c r="E158" s="13">
+        <v>15783</v>
+      </c>
+      <c r="F158" s="13">
+        <v>33085</v>
+      </c>
+      <c r="G158" s="13">
+        <v>20130</v>
+      </c>
+      <c r="H158" s="13">
+        <v>6478</v>
+      </c>
+      <c r="I158" s="13">
+        <v>4595</v>
+      </c>
+      <c r="J158" s="13">
         <v>7476</v>
       </c>
-      <c r="F158" s="13">
+      <c r="K158" s="13">
         <v>-29502</v>
       </c>
-      <c r="G158" s="13">
+      <c r="L158" s="13">
         <v>29524</v>
       </c>
-      <c r="H158" s="13">
+      <c r="M158" s="13">
         <v>2718</v>
       </c>
-      <c r="I158" s="13">
+      <c r="N158" s="13">
         <v>53995</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" s="11">
+        <v>18</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K159" s="11">
         <v>978018</v>
       </c>
-      <c r="G159" s="11">
+      <c r="L159" s="11">
         <v>24353</v>
       </c>
-      <c r="H159" s="11">
+      <c r="M159" s="11">
         <v>291039</v>
       </c>
-      <c r="I159" s="11">
+      <c r="N159" s="11">
         <v>217061</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D160" s="13"/>
       <c r="E160" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" s="13">
+        <v>18</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J160" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" s="13">
         <v>1292141</v>
       </c>
-      <c r="G160" s="13">
+      <c r="L160" s="13">
         <v>254443</v>
       </c>
-      <c r="H160" s="13">
+      <c r="M160" s="13">
         <v>1052147</v>
       </c>
-      <c r="I160" s="13">
+      <c r="N160" s="13">
         <v>720048</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" s="11">
+        <v>18</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" s="11">
         <v>2498312</v>
       </c>
-      <c r="G161" s="11">
+      <c r="L161" s="11">
         <v>526664</v>
       </c>
-      <c r="H161" s="11">
+      <c r="M161" s="11">
         <v>1144437</v>
       </c>
-      <c r="I161" s="11">
+      <c r="N161" s="11">
         <v>955257</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D162" s="13"/>
       <c r="E162" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" s="13">
+        <v>18</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J162" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K162" s="13">
         <v>4362129</v>
       </c>
-      <c r="G162" s="13">
+      <c r="L162" s="13">
         <v>1385750</v>
       </c>
-      <c r="H162" s="13">
+      <c r="M162" s="13">
         <v>1852712</v>
       </c>
-      <c r="I162" s="13">
+      <c r="N162" s="13">
         <v>1526305</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D163" s="11"/>
       <c r="E163" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" s="11">
+        <v>18</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J163" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K163" s="11">
         <v>2075423</v>
       </c>
-      <c r="G163" s="11">
+      <c r="L163" s="11">
         <v>718725</v>
       </c>
-      <c r="H163" s="11">
+      <c r="M163" s="11">
         <v>1494939</v>
       </c>
-      <c r="I163" s="11">
+      <c r="N163" s="11">
         <v>1183615</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
       <c r="E164" s="15">
+        <v>1998955</v>
+      </c>
+      <c r="F164" s="15">
+        <v>2534016</v>
+      </c>
+      <c r="G164" s="15">
+        <v>2215325</v>
+      </c>
+      <c r="H164" s="15">
+        <v>2784357</v>
+      </c>
+      <c r="I164" s="15">
+        <v>5056319</v>
+      </c>
+      <c r="J164" s="15">
         <v>4186295</v>
       </c>
-      <c r="F164" s="15">
+      <c r="K164" s="15">
         <v>15863608</v>
       </c>
-      <c r="G164" s="15">
+      <c r="L164" s="15">
         <v>3856925</v>
       </c>
-      <c r="H164" s="15">
+      <c r="M164" s="15">
         <v>7576222</v>
       </c>
-      <c r="I164" s="15">
+      <c r="N164" s="15">
         <v>6410276</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -4097,296 +6202,481 @@
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="9"/>
+      <c r="K165" s="9"/>
+      <c r="L165" s="9"/>
+      <c r="M165" s="9"/>
+      <c r="N165" s="9"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D166" s="11"/>
-      <c r="E166" s="11" t="s">
-        <v>13</v>
+      <c r="E166" s="11">
+        <v>0</v>
       </c>
       <c r="F166" s="11">
+        <v>0</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J166" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K166" s="11">
         <v>52190</v>
       </c>
-      <c r="G166" s="11">
+      <c r="L166" s="11">
         <v>3586</v>
       </c>
-      <c r="H166" s="11">
-        <v>0</v>
-      </c>
-      <c r="I166" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M166" s="11">
+        <v>0</v>
+      </c>
+      <c r="N166" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D167" s="13"/>
-      <c r="E167" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>13</v>
+      <c r="E167" s="13">
+        <v>0</v>
+      </c>
+      <c r="F167" s="13">
+        <v>0</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J167" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K167" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L167" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M167" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N167" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
+        <v>705075</v>
+      </c>
+      <c r="F168" s="11">
+        <v>4025105</v>
+      </c>
+      <c r="G168" s="11">
+        <v>2003400</v>
+      </c>
+      <c r="H168" s="11">
+        <v>1754048</v>
+      </c>
+      <c r="I168" s="11">
+        <v>870693</v>
+      </c>
+      <c r="J168" s="11">
         <v>1253837</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H168" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I168" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K168" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L168" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M168" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N168" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D169" s="13"/>
       <c r="E169" s="13">
+        <v>150007</v>
+      </c>
+      <c r="F169" s="13">
+        <v>121962</v>
+      </c>
+      <c r="G169" s="13">
+        <v>156335</v>
+      </c>
+      <c r="H169" s="13">
+        <v>182411</v>
+      </c>
+      <c r="I169" s="13">
+        <v>325125</v>
+      </c>
+      <c r="J169" s="13">
         <v>324453</v>
       </c>
-      <c r="F169" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H169" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I169" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K169" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L169" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M169" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N169" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" s="11">
+        <v>18</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K170" s="11">
         <v>2555960</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>1275192</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>967440</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>262926</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D171" s="13"/>
-      <c r="E171" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F171" s="13" t="s">
-        <v>13</v>
+      <c r="E171" s="13">
+        <v>0</v>
+      </c>
+      <c r="F171" s="13">
+        <v>0</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J171" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K171" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L171" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M171" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N171" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" s="11">
+        <v>18</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K172" s="11">
         <v>1065587</v>
       </c>
-      <c r="G172" s="11">
+      <c r="L172" s="11">
         <v>344540</v>
       </c>
-      <c r="H172" s="11">
+      <c r="M172" s="11">
         <v>444017</v>
       </c>
-      <c r="I172" s="11">
+      <c r="N172" s="11">
         <v>575620</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D173" s="13"/>
       <c r="E173" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" s="13">
+        <v>18</v>
+      </c>
+      <c r="F173" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H173" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J173" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K173" s="13">
         <v>149063</v>
       </c>
-      <c r="G173" s="13">
+      <c r="L173" s="13">
         <v>45512</v>
       </c>
-      <c r="H173" s="13">
+      <c r="M173" s="13">
         <v>17533</v>
       </c>
-      <c r="I173" s="13">
+      <c r="N173" s="13">
         <v>29385</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" s="11">
+        <v>18</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K174" s="11">
         <v>47155</v>
       </c>
-      <c r="G174" s="11">
+      <c r="L174" s="11">
         <v>9663</v>
       </c>
-      <c r="H174" s="11">
+      <c r="M174" s="11">
         <v>2219</v>
       </c>
-      <c r="I174" s="11">
+      <c r="N174" s="11">
         <v>-417</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D175" s="13"/>
       <c r="E175" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" s="13">
+        <v>18</v>
+      </c>
+      <c r="F175" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J175" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K175" s="13">
         <v>1713</v>
       </c>
-      <c r="G175" s="13">
-        <v>0</v>
-      </c>
-      <c r="H175" s="13">
-        <v>0</v>
-      </c>
-      <c r="I175" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L175" s="13">
+        <v>0</v>
+      </c>
+      <c r="M175" s="13">
+        <v>0</v>
+      </c>
+      <c r="N175" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F176" s="11">
+        <v>18</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J176" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K176" s="11">
         <v>1259431</v>
       </c>
-      <c r="G176" s="11">
+      <c r="L176" s="11">
         <v>909737</v>
       </c>
-      <c r="H176" s="11">
+      <c r="M176" s="11">
         <v>-37403</v>
       </c>
-      <c r="I176" s="11">
+      <c r="N176" s="11">
         <v>346093</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15">
+        <v>855082</v>
+      </c>
+      <c r="F177" s="15">
+        <v>4147067</v>
+      </c>
+      <c r="G177" s="15">
+        <v>2159735</v>
+      </c>
+      <c r="H177" s="15">
+        <v>1936459</v>
+      </c>
+      <c r="I177" s="15">
+        <v>1195818</v>
+      </c>
+      <c r="J177" s="15">
         <v>1578290</v>
       </c>
-      <c r="F177" s="15">
+      <c r="K177" s="15">
         <v>5131099</v>
       </c>
-      <c r="G177" s="15">
+      <c r="L177" s="15">
         <v>2588230</v>
       </c>
-      <c r="H177" s="15">
+      <c r="M177" s="15">
         <v>1393806</v>
       </c>
-      <c r="I177" s="15">
+      <c r="N177" s="15">
         <v>1213607</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
@@ -4395,34 +6685,54 @@
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+      <c r="M178" s="9"/>
+      <c r="N178" s="9"/>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D179" s="11"/>
-      <c r="E179" s="11" t="s">
-        <v>13</v>
+      <c r="E179" s="11">
+        <v>0</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H179" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J179" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K179" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L179" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M179" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N179" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
@@ -4441,26 +6751,56 @@
       <c r="I180" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="15">
+        <v>0</v>
+      </c>
+      <c r="K180" s="15">
+        <v>0</v>
+      </c>
+      <c r="L180" s="15">
+        <v>0</v>
+      </c>
+      <c r="M180" s="15">
+        <v>0</v>
+      </c>
+      <c r="N180" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C181" s="17"/>
       <c r="D181" s="17"/>
       <c r="E181" s="17">
+        <v>2854037</v>
+      </c>
+      <c r="F181" s="17">
+        <v>6681083</v>
+      </c>
+      <c r="G181" s="17">
+        <v>4375060</v>
+      </c>
+      <c r="H181" s="17">
+        <v>4720816</v>
+      </c>
+      <c r="I181" s="17">
+        <v>6252137</v>
+      </c>
+      <c r="J181" s="17">
         <v>5764585</v>
       </c>
-      <c r="F181" s="17">
+      <c r="K181" s="17">
         <v>20994707</v>
       </c>
-      <c r="G181" s="17">
+      <c r="L181" s="17">
         <v>6445155</v>
       </c>
-      <c r="H181" s="17">
+      <c r="M181" s="17">
         <v>8970028</v>
       </c>
-      <c r="I181" s="17">
+      <c r="N181" s="17">
         <v>7623883</v>
       </c>
     </row>

--- a/database/industries/ravankar/sheranol/product/quarterly_seprated.xlsx
+++ b/database/industries/ravankar/sheranol/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E4F6F-A27E-4D97-8358-74ECC7141829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DEA73C-2E78-4431-9981-9F038DF8D275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="62">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -682,12 +682,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -702,7 +702,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -736,7 +736,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -751,7 +751,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -800,7 +800,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -837,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -852,7 +852,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -895,8 +895,8 @@
       <c r="J11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
+      <c r="K11" s="11">
+        <v>110028</v>
       </c>
       <c r="L11" s="11">
         <v>27277</v>
@@ -908,7 +908,7 @@
         <v>22233</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -934,8 +934,8 @@
       <c r="J12" s="13">
         <v>612</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="K12" s="13">
+        <v>206</v>
       </c>
       <c r="L12" s="13">
         <v>63</v>
@@ -947,7 +947,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -986,7 +986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1051,8 +1051,8 @@
       <c r="J15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
+      <c r="K15" s="11">
+        <v>52839</v>
       </c>
       <c r="L15" s="11">
         <v>10899</v>
@@ -1064,7 +1064,7 @@
         <v>13678</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1090,8 +1090,8 @@
       <c r="J16" s="13">
         <v>206</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>18</v>
+      <c r="K16" s="13">
+        <v>433</v>
       </c>
       <c r="L16" s="13">
         <v>101</v>
@@ -1103,7 +1103,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1129,8 +1129,8 @@
       <c r="J17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
+      <c r="K17" s="11">
+        <v>27302</v>
       </c>
       <c r="L17" s="11">
         <v>4337</v>
@@ -1142,7 +1142,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1168,8 +1168,8 @@
       <c r="J18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>18</v>
+      <c r="K18" s="13">
+        <v>52240</v>
       </c>
       <c r="L18" s="13">
         <v>6711</v>
@@ -1181,7 +1181,7 @@
         <v>17302</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1207,8 +1207,8 @@
       <c r="J19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>18</v>
+      <c r="K19" s="11">
+        <v>43397</v>
       </c>
       <c r="L19" s="11">
         <v>9916</v>
@@ -1220,7 +1220,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1246,8 +1246,8 @@
       <c r="J20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
+      <c r="K20" s="13">
+        <v>25687</v>
       </c>
       <c r="L20" s="13">
         <v>6810</v>
@@ -1259,7 +1259,7 @@
         <v>6351</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1285,8 +1285,8 @@
       <c r="J21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>18</v>
+      <c r="K21" s="11">
+        <v>103374</v>
       </c>
       <c r="L21" s="11">
         <v>27425</v>
@@ -1298,7 +1298,7 @@
         <v>26372</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>29</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>102472</v>
       </c>
       <c r="K22" s="15">
-        <v>0</v>
+        <v>415506</v>
       </c>
       <c r="L22" s="15">
         <v>93539</v>
@@ -1335,7 +1335,7 @@
         <v>105648</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>30</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>16</v>
       </c>
@@ -1378,8 +1378,8 @@
       <c r="J24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>18</v>
+      <c r="K24" s="11">
+        <v>1862</v>
       </c>
       <c r="L24" s="11">
         <v>104</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>20</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>22</v>
       </c>
@@ -1534,8 +1534,8 @@
       <c r="J28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>18</v>
+      <c r="K28" s="11">
+        <v>56667</v>
       </c>
       <c r="L28" s="11">
         <v>25432</v>
@@ -1547,7 +1547,7 @@
         <v>13004</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>23</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>24</v>
       </c>
@@ -1612,8 +1612,8 @@
       <c r="J30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>18</v>
+      <c r="K30" s="11">
+        <v>40480</v>
       </c>
       <c r="L30" s="11">
         <v>13442</v>
@@ -1625,7 +1625,7 @@
         <v>13507</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>25</v>
       </c>
@@ -1651,8 +1651,8 @@
       <c r="J31" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="13" t="s">
-        <v>18</v>
+      <c r="K31" s="13">
+        <v>2226</v>
       </c>
       <c r="L31" s="13">
         <v>550</v>
@@ -1664,7 +1664,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>26</v>
       </c>
@@ -1690,8 +1690,8 @@
       <c r="J32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>18</v>
+      <c r="K32" s="11">
+        <v>1601</v>
       </c>
       <c r="L32" s="11">
         <v>392</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>27</v>
       </c>
@@ -1729,8 +1729,8 @@
       <c r="J33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="13" t="s">
-        <v>18</v>
+      <c r="K33" s="13">
+        <v>41</v>
       </c>
       <c r="L33" s="13">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>28</v>
       </c>
@@ -1768,8 +1768,8 @@
       <c r="J34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>18</v>
+      <c r="K34" s="11">
+        <v>61038</v>
       </c>
       <c r="L34" s="11">
         <v>22997</v>
@@ -1781,7 +1781,7 @@
         <v>14143</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>31</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>53269</v>
       </c>
       <c r="K35" s="15">
-        <v>0</v>
+        <v>163915</v>
       </c>
       <c r="L35" s="15">
         <v>62917</v>
@@ -1818,7 +1818,7 @@
         <v>40948</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>32</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>16</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>33</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>34</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>36</v>
       </c>
@@ -1974,8 +1974,8 @@
       <c r="J40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K40" s="15" t="s">
-        <v>18</v>
+      <c r="K40" s="15">
+        <v>0</v>
       </c>
       <c r="L40" s="15">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>37</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>155741</v>
       </c>
       <c r="K41" s="17">
-        <v>0</v>
+        <v>579421</v>
       </c>
       <c r="L41" s="17">
         <v>156456</v>
@@ -2024,7 +2024,7 @@
         <v>146596</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2039,7 +2039,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2054,7 +2054,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2069,7 +2069,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>38</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2121,7 +2121,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>39</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
@@ -2164,8 +2164,8 @@
       <c r="J48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K48" s="11" t="s">
-        <v>18</v>
+      <c r="K48" s="11">
+        <v>7655133</v>
       </c>
       <c r="L48" s="11">
         <v>2696744</v>
@@ -2177,7 +2177,7 @@
         <v>1901661</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>19</v>
       </c>
@@ -2203,8 +2203,8 @@
       <c r="J49" s="13">
         <v>226239</v>
       </c>
-      <c r="K49" s="13" t="s">
-        <v>18</v>
+      <c r="K49" s="13">
+        <v>72614</v>
       </c>
       <c r="L49" s="13">
         <v>26005</v>
@@ -2216,7 +2216,7 @@
         <v>506732</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>20</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>21</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>22</v>
       </c>
@@ -2320,8 +2320,8 @@
       <c r="J52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K52" s="11" t="s">
-        <v>18</v>
+      <c r="K52" s="11">
+        <v>9610066</v>
       </c>
       <c r="L52" s="11">
         <v>2678381</v>
@@ -2333,7 +2333,7 @@
         <v>3581516</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>23</v>
       </c>
@@ -2359,8 +2359,8 @@
       <c r="J53" s="13">
         <v>87444</v>
       </c>
-      <c r="K53" s="13" t="s">
-        <v>18</v>
+      <c r="K53" s="13">
+        <v>189012</v>
       </c>
       <c r="L53" s="13">
         <v>65960</v>
@@ -2372,7 +2372,7 @@
         <v>591315</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>24</v>
       </c>
@@ -2398,8 +2398,8 @@
       <c r="J54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>18</v>
+      <c r="K54" s="11">
+        <v>3977734</v>
       </c>
       <c r="L54" s="11">
         <v>839870</v>
@@ -2411,7 +2411,7 @@
         <v>895472</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>25</v>
       </c>
@@ -2437,8 +2437,8 @@
       <c r="J55" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="13" t="s">
-        <v>18</v>
+      <c r="K55" s="13">
+        <v>12830873</v>
       </c>
       <c r="L55" s="13">
         <v>2139465</v>
@@ -2450,7 +2450,7 @@
         <v>5804084</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>26</v>
       </c>
@@ -2476,8 +2476,8 @@
       <c r="J56" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="11" t="s">
-        <v>18</v>
+      <c r="K56" s="11">
+        <v>12073483</v>
       </c>
       <c r="L56" s="11">
         <v>3193199</v>
@@ -2489,7 +2489,7 @@
         <v>4763761</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>27</v>
       </c>
@@ -2515,8 +2515,8 @@
       <c r="J57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="13" t="s">
-        <v>18</v>
+      <c r="K57" s="13">
+        <v>9578222</v>
       </c>
       <c r="L57" s="13">
         <v>3412186</v>
@@ -2528,7 +2528,7 @@
         <v>3514011</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>28</v>
       </c>
@@ -2554,8 +2554,8 @@
       <c r="J58" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K58" s="11" t="s">
-        <v>18</v>
+      <c r="K58" s="11">
+        <v>9296487</v>
       </c>
       <c r="L58" s="11">
         <v>4236935</v>
@@ -2567,7 +2567,7 @@
         <v>3061951</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>29</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>18785051</v>
       </c>
       <c r="K59" s="15">
-        <v>0</v>
+        <v>65283624</v>
       </c>
       <c r="L59" s="15">
         <v>19288745</v>
@@ -2604,7 +2604,7 @@
         <v>24620503</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>41</v>
       </c>
@@ -2621,7 +2621,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>16</v>
       </c>
@@ -2647,8 +2647,8 @@
       <c r="J61" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K61" s="11" t="s">
-        <v>18</v>
+      <c r="K61" s="11">
+        <v>209781</v>
       </c>
       <c r="L61" s="11">
         <v>19397</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>19</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>21</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>22</v>
       </c>
@@ -2803,8 +2803,8 @@
       <c r="J65" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K65" s="11" t="s">
-        <v>18</v>
+      <c r="K65" s="11">
+        <v>10399671</v>
       </c>
       <c r="L65" s="11">
         <v>6074562</v>
@@ -2816,7 +2816,7 @@
         <v>2953964</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>23</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>24</v>
       </c>
@@ -2881,8 +2881,8 @@
       <c r="J67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K67" s="11" t="s">
-        <v>18</v>
+      <c r="K67" s="11">
+        <v>5170494</v>
       </c>
       <c r="L67" s="11">
         <v>2607411</v>
@@ -2894,7 +2894,7 @@
         <v>2205507</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>25</v>
       </c>
@@ -2920,8 +2920,8 @@
       <c r="J68" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K68" s="13" t="s">
-        <v>18</v>
+      <c r="K68" s="13">
+        <v>558419</v>
       </c>
       <c r="L68" s="13">
         <v>160593</v>
@@ -2933,7 +2933,7 @@
         <v>107590</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>26</v>
       </c>
@@ -2959,8 +2959,8 @@
       <c r="J69" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K69" s="11" t="s">
-        <v>18</v>
+      <c r="K69" s="11">
+        <v>341543</v>
       </c>
       <c r="L69" s="11">
         <v>95110</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>27</v>
       </c>
@@ -2998,8 +2998,8 @@
       <c r="J70" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K70" s="13" t="s">
-        <v>18</v>
+      <c r="K70" s="13">
+        <v>8993</v>
       </c>
       <c r="L70" s="13">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>28</v>
       </c>
@@ -3037,8 +3037,8 @@
       <c r="J71" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K71" s="11" t="s">
-        <v>18</v>
+      <c r="K71" s="11">
+        <v>5169742</v>
       </c>
       <c r="L71" s="11">
         <v>3180053</v>
@@ -3050,7 +3050,7 @@
         <v>1241725</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>31</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>6718086</v>
       </c>
       <c r="K72" s="15">
-        <v>0</v>
+        <v>21858643</v>
       </c>
       <c r="L72" s="15">
         <v>12137126</v>
@@ -3087,7 +3087,7 @@
         <v>6508786</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>42</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>16</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>33</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="16" t="s">
         <v>34</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>36</v>
       </c>
@@ -3245,8 +3245,8 @@
       <c r="J77" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K77" s="15" t="s">
-        <v>18</v>
+      <c r="K77" s="15">
+        <v>0</v>
       </c>
       <c r="L77" s="15">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="16" t="s">
         <v>37</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>25503137</v>
       </c>
       <c r="K78" s="17">
-        <v>0</v>
+        <v>87142267</v>
       </c>
       <c r="L78" s="17">
         <v>31425871</v>
@@ -3295,7 +3295,7 @@
         <v>31129289</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3310,7 +3310,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3325,7 +3325,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3340,7 +3340,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>43</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3392,7 +3392,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>44</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>16</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>85533261</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>19</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>591976636</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>20</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>21</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>22</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>261845007</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>23</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>714148551</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>24</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>178097056</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>25</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>335457404</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>26</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>366443154</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>27</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>553300425</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>28</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>116106135</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>46</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>19</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>20</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>21</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>22</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>227158105</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>23</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>24</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>163286222</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>25</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>365952381</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>26</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>27</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>28</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>87797851</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>47</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>16</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4355,7 +4355,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4370,7 +4370,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4385,7 +4385,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>48</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4437,7 +4437,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>49</v>
       </c>
@@ -4454,7 +4454,7 @@
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>16</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>-1178166</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>19</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>-221250</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>20</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>21</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>22</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>-2836498</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>23</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>-537320</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>24</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>-678411</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="12" t="s">
         <v>25</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>-5084036</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>26</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>-3808504</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>27</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>-1987706</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>28</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>-1878336</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>50</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>-18210227</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>51</v>
       </c>
@@ -4937,7 +4937,7 @@
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>16</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>19</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>20</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="12" t="s">
         <v>21</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>22</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>-2691038</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="12" t="s">
         <v>23</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>24</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>-1629887</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="12" t="s">
         <v>25</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>-78205</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>26</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>-417</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>27</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>28</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>-895632</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="14" t="s">
         <v>52</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>-5295179</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>53</v>
       </c>
@@ -5420,7 +5420,7 @@
       <c r="M141" s="9"/>
       <c r="N141" s="9"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>16</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="14" t="s">
         <v>54</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="16" t="s">
         <v>34</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="14" t="s">
         <v>36</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="16" t="s">
         <v>37</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>-23505406</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5626,7 +5626,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5641,7 +5641,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5656,7 +5656,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>55</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5708,7 +5708,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>56</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="M152" s="9"/>
       <c r="N152" s="9"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>16</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>723495</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="12" t="s">
         <v>19</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>285482</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>20</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="12" t="s">
         <v>21</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>22</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>745018</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="12" t="s">
         <v>23</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>53995</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>24</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>217061</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="12" t="s">
         <v>25</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>720048</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>26</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>955257</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="12" t="s">
         <v>27</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>1526305</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>28</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>1183615</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="14" t="s">
         <v>57</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>6410276</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>58</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="M165" s="9"/>
       <c r="N165" s="9"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>16</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="12" t="s">
         <v>19</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>20</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="12" t="s">
         <v>21</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>22</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>262926</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="12" t="s">
         <v>23</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>24</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>575620</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="12" t="s">
         <v>25</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>29385</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>26</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>-417</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="12" t="s">
         <v>27</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>28</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>346093</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="14" t="s">
         <v>59</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>1213607</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>60</v>
       </c>
@@ -6691,7 +6691,7 @@
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>16</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="14" t="s">
         <v>61</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="16" t="s">
         <v>37</v>
       </c>
